--- a/references/Release9_DataDic/ICU_SR.xlsx
+++ b/references/Release9_DataDic/ICU_SR.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Healthy Brain Network\Data Sharing\Data Dictionaries\Public Data Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data-1/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0CE90A-C590-8B4D-83ED-03B6AF14A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="26115" windowHeight="15045" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="26120" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -204,12 +205,15 @@
   </si>
   <si>
     <t>Inventory of Callous-Unemotional Traits (ICU) Self Report</t>
+  </si>
+  <si>
+    <t>3=Not at all true,2=Somewhat true, 1=Very true, 0=Definitely true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -244,6 +248,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +280,7 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -701,21 +707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -729,7 +735,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -751,7 +757,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -765,10 +771,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -785,7 +791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -799,10 +805,10 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -819,7 +825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -833,10 +839,10 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -853,7 +859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -870,7 +876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -884,10 +890,10 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -904,7 +910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -921,7 +927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -938,7 +944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -955,7 +961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -969,10 +975,10 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -986,10 +992,10 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1003,10 +1009,10 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1020,10 +1026,10 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1037,10 +1043,10 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1071,10 +1077,10 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1139,10 +1145,10 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>54</v>
       </c>
@@ -1155,16 +1161,16 @@
       <c r="D26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
